--- a/Project Planning/1_7밥알짜 메뉴 v1_6명.xlsx
+++ b/Project Planning/1_7밥알짜 메뉴 v1_6명.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\babalzza-master\babalzza-master\Project Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="가이드라인" sheetId="1" r:id="rId1"/>
     <sheet name="메뉴채우기" sheetId="2" r:id="rId2"/>
+    <sheet name="빈도수" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="682">
   <si>
     <t>밥알짜 메뉴 v1 가이드라인</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2106,6 +2107,578 @@
   </si>
   <si>
     <t>https://haemukja.com/recipes/5813</t>
+  </si>
+  <si>
+    <t>재료명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈도수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈치</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>무</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>감자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대파</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>쪽파</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마늘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>당근</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>양파</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>당면</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파스타면</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>소고기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>차돌박이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고등어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지고기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>베이컨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>달걀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>치즈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오징어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>새우</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>참치통조림</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>쭈꾸미</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>바지락</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼국수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일식면</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미역</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀가루</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>떡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>호떡믹스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>어묵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>라면</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>소면</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우동사리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>양배추</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배추</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>적양배추</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>양상추</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>두부</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>청경채</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>크래미</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫도그번</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>식빵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>팽이버섯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>느타리버섯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>표고버섯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>양송이버섯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>새송이버섯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥수수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>또띠아</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌈채소</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌀국수면</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이스페이퍼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈제오리고기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙주</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카레가루</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고추</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고춧가루</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고추장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대추</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥주</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부추</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>깻잎</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>치커리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파프리카</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>애호박</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩나물</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>멸치</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시마</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>생강</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>동치미</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>육수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가쓰오부시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부침가루</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전분</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>실파</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>쑥갓</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>실곤약</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>피망</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>춘장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>두반장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파인애플</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽순</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>와인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우유</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>생크림</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨스톡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파슬리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>토마토</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>방울토마토</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>토마토소스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭갈비양념</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>피클</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>할라피뇨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>베이크드빈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>올리브유</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>레몬</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>요거트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>라임</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>큐민파우더</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>페페론치노</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>설탕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>진간장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>국간장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>완두콩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛술</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>청주</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>통후추</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>참기름</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>매실액</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>매실청</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>올리고당</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>된장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩가루</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마요네즈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>소금</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>식용유</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>식초</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>찹쌀가루</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>들깨가루</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>참깨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>들기름</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>쯔유</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈까스소스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>데리야끼소스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>물엿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>케찹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>굴소스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>버터</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>잼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이크 소스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>바질</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅콩버터</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>물</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>칠리소스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2393,7 +2966,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2463,6 +3036,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2487,11 +3066,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2901,26 +3477,26 @@
     </row>
     <row r="13" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27"/>
     </row>
     <row r="15" spans="2:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="30"/>
     </row>
     <row r="16" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="13" t="s">
@@ -3070,9 +3646,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+    <sheetView zoomScale="63" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3117,17 +3693,17 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="32"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
@@ -3154,7 +3730,7 @@
       <c r="H3" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="23" t="s">
         <v>445</v>
       </c>
     </row>
@@ -3212,7 +3788,7 @@
       <c r="H5" t="s">
         <v>92</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="23" t="s">
         <v>447</v>
       </c>
     </row>
@@ -3412,7 +3988,7 @@
       <c r="H12" t="s">
         <v>138</v>
       </c>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="23" t="s">
         <v>457</v>
       </c>
     </row>
@@ -3441,7 +4017,7 @@
       <c r="H13" t="s">
         <v>241</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="23" t="s">
         <v>458</v>
       </c>
     </row>
@@ -3467,7 +4043,7 @@
       <c r="H14" t="s">
         <v>241</v>
       </c>
-      <c r="I14" s="31" t="s">
+      <c r="I14" s="23" t="s">
         <v>459</v>
       </c>
     </row>
@@ -3603,7 +4179,7 @@
       <c r="H19" t="s">
         <v>355</v>
       </c>
-      <c r="I19" s="31" t="s">
+      <c r="I19" s="23" t="s">
         <v>464</v>
       </c>
     </row>
@@ -3661,7 +4237,7 @@
       <c r="H21" t="s">
         <v>356</v>
       </c>
-      <c r="I21" s="31" t="s">
+      <c r="I21" s="23" t="s">
         <v>466</v>
       </c>
     </row>
@@ -3716,7 +4292,7 @@
       <c r="H23" t="s">
         <v>375</v>
       </c>
-      <c r="I23" s="31" t="s">
+      <c r="I23" s="23" t="s">
         <v>468</v>
       </c>
     </row>
@@ -3745,7 +4321,7 @@
       <c r="H24" t="s">
         <v>384</v>
       </c>
-      <c r="I24" s="31" t="s">
+      <c r="I24" s="23" t="s">
         <v>469</v>
       </c>
     </row>
@@ -3808,17 +4384,17 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="24"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
@@ -3932,7 +4508,7 @@
       <c r="H31" t="s">
         <v>287</v>
       </c>
-      <c r="I31" s="31" t="s">
+      <c r="I31" s="23" t="s">
         <v>475</v>
       </c>
     </row>
@@ -4019,7 +4595,7 @@
       <c r="H34" t="s">
         <v>295</v>
       </c>
-      <c r="I34" s="31" t="s">
+      <c r="I34" s="23" t="s">
         <v>478</v>
       </c>
     </row>
@@ -4048,7 +4624,7 @@
       <c r="H35" t="s">
         <v>49</v>
       </c>
-      <c r="I35" s="31" t="s">
+      <c r="I35" s="23" t="s">
         <v>479</v>
       </c>
     </row>
@@ -4077,7 +4653,7 @@
       <c r="H36" t="s">
         <v>287</v>
       </c>
-      <c r="I36" s="31" t="s">
+      <c r="I36" s="23" t="s">
         <v>481</v>
       </c>
     </row>
@@ -4111,17 +4687,17 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="32"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="24"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
@@ -4206,7 +4782,7 @@
       <c r="H41" t="s">
         <v>49</v>
       </c>
-      <c r="I41" s="31" t="s">
+      <c r="I41" s="23" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4261,7 +4837,7 @@
       <c r="H43" t="s">
         <v>49</v>
       </c>
-      <c r="I43" s="31" t="s">
+      <c r="I43" s="23" t="s">
         <v>487</v>
       </c>
     </row>
@@ -4440,17 +5016,17 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="32" t="s">
         <v>399</v>
       </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="32"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="24"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
@@ -4680,7 +5256,7 @@
       <c r="H58" t="s">
         <v>428</v>
       </c>
-      <c r="I58" s="31" t="s">
+      <c r="I58" s="23" t="s">
         <v>520</v>
       </c>
     </row>
@@ -4743,17 +5319,17 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A61" s="30" t="s">
+      <c r="A61" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="32"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="24"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
@@ -5217,4 +5793,1183 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId17"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B145"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="16" t="s">
+        <v>539</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="B2" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="33" t="s">
+        <v>542</v>
+      </c>
+      <c r="B3" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="B4" s="33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="33" t="s">
+        <v>544</v>
+      </c>
+      <c r="B5" s="33">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="33" t="s">
+        <v>545</v>
+      </c>
+      <c r="B6" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="33" t="s">
+        <v>546</v>
+      </c>
+      <c r="B7" s="33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="33" t="s">
+        <v>547</v>
+      </c>
+      <c r="B8" s="33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="33" t="s">
+        <v>548</v>
+      </c>
+      <c r="B9" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="33" t="s">
+        <v>549</v>
+      </c>
+      <c r="B10" s="33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="33" t="s">
+        <v>550</v>
+      </c>
+      <c r="B11" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="33" t="s">
+        <v>551</v>
+      </c>
+      <c r="B12" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="33" t="s">
+        <v>552</v>
+      </c>
+      <c r="B13" s="33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="33" t="s">
+        <v>553</v>
+      </c>
+      <c r="B14" s="33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" s="33" t="s">
+        <v>554</v>
+      </c>
+      <c r="B15" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" s="33" t="s">
+        <v>555</v>
+      </c>
+      <c r="B16" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="33" t="s">
+        <v>556</v>
+      </c>
+      <c r="B17" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="33" t="s">
+        <v>557</v>
+      </c>
+      <c r="B18" s="33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="33" t="s">
+        <v>558</v>
+      </c>
+      <c r="B19" s="33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="33" t="s">
+        <v>559</v>
+      </c>
+      <c r="B20" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" s="33" t="s">
+        <v>560</v>
+      </c>
+      <c r="B21" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" s="33" t="s">
+        <v>561</v>
+      </c>
+      <c r="B22" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" s="33" t="s">
+        <v>562</v>
+      </c>
+      <c r="B23" s="33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" s="33" t="s">
+        <v>563</v>
+      </c>
+      <c r="B24" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" s="33" t="s">
+        <v>564</v>
+      </c>
+      <c r="B25" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" s="33" t="s">
+        <v>565</v>
+      </c>
+      <c r="B26" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="B27" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" s="33" t="s">
+        <v>567</v>
+      </c>
+      <c r="B28" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" s="33" t="s">
+        <v>568</v>
+      </c>
+      <c r="B29" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" s="33" t="s">
+        <v>569</v>
+      </c>
+      <c r="B30" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="B31" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" s="33" t="s">
+        <v>570</v>
+      </c>
+      <c r="B32" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" s="33" t="s">
+        <v>571</v>
+      </c>
+      <c r="B33" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="B34" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" s="33" t="s">
+        <v>573</v>
+      </c>
+      <c r="B35" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" s="33" t="s">
+        <v>574</v>
+      </c>
+      <c r="B36" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" s="33" t="s">
+        <v>575</v>
+      </c>
+      <c r="B37" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" s="33" t="s">
+        <v>576</v>
+      </c>
+      <c r="B38" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" s="33" t="s">
+        <v>577</v>
+      </c>
+      <c r="B39" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40" s="33" t="s">
+        <v>578</v>
+      </c>
+      <c r="B40" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="B41" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="B42" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43" s="33" t="s">
+        <v>580</v>
+      </c>
+      <c r="B43" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" s="33" t="s">
+        <v>581</v>
+      </c>
+      <c r="B44" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45" s="33" t="s">
+        <v>582</v>
+      </c>
+      <c r="B45" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46" s="33" t="s">
+        <v>583</v>
+      </c>
+      <c r="B46" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47" s="33" t="s">
+        <v>584</v>
+      </c>
+      <c r="B47" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48" s="33" t="s">
+        <v>585</v>
+      </c>
+      <c r="B48" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49" s="33" t="s">
+        <v>586</v>
+      </c>
+      <c r="B49" s="33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="B50" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51" s="33" t="s">
+        <v>588</v>
+      </c>
+      <c r="B51" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52" s="33" t="s">
+        <v>589</v>
+      </c>
+      <c r="B52" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53" s="33" t="s">
+        <v>590</v>
+      </c>
+      <c r="B53" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54" s="33" t="s">
+        <v>591</v>
+      </c>
+      <c r="B54" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55" s="33" t="s">
+        <v>592</v>
+      </c>
+      <c r="B55" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56" s="33" t="s">
+        <v>593</v>
+      </c>
+      <c r="B56" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57" s="33" t="s">
+        <v>594</v>
+      </c>
+      <c r="B57" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58" s="33" t="s">
+        <v>595</v>
+      </c>
+      <c r="B58" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59" s="33" t="s">
+        <v>596</v>
+      </c>
+      <c r="B59" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60" s="33" t="s">
+        <v>597</v>
+      </c>
+      <c r="B60" s="33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61" s="33" t="s">
+        <v>598</v>
+      </c>
+      <c r="B61" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62" s="33" t="s">
+        <v>599</v>
+      </c>
+      <c r="B62" s="33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63" s="33" t="s">
+        <v>600</v>
+      </c>
+      <c r="B63" s="33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64" s="33" t="s">
+        <v>601</v>
+      </c>
+      <c r="B64" s="33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65" s="33" t="s">
+        <v>602</v>
+      </c>
+      <c r="B65" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66" s="33" t="s">
+        <v>603</v>
+      </c>
+      <c r="B66" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67" s="33" t="s">
+        <v>604</v>
+      </c>
+      <c r="B67" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68" s="33" t="s">
+        <v>605</v>
+      </c>
+      <c r="B68" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69" s="33" t="s">
+        <v>606</v>
+      </c>
+      <c r="B69" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70" s="33" t="s">
+        <v>607</v>
+      </c>
+      <c r="B70" s="33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71" s="33" t="s">
+        <v>608</v>
+      </c>
+      <c r="B71" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72" s="33" t="s">
+        <v>609</v>
+      </c>
+      <c r="B72" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73" s="33" t="s">
+        <v>610</v>
+      </c>
+      <c r="B73" s="33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74" s="33" t="s">
+        <v>611</v>
+      </c>
+      <c r="B74" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75" s="33" t="s">
+        <v>612</v>
+      </c>
+      <c r="B75" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76" s="33" t="s">
+        <v>613</v>
+      </c>
+      <c r="B76" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77" s="33" t="s">
+        <v>614</v>
+      </c>
+      <c r="B77" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78" s="33" t="s">
+        <v>615</v>
+      </c>
+      <c r="B78" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79" s="33" t="s">
+        <v>616</v>
+      </c>
+      <c r="B79" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80" s="33" t="s">
+        <v>617</v>
+      </c>
+      <c r="B80" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81" s="33" t="s">
+        <v>618</v>
+      </c>
+      <c r="B81" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82" s="33" t="s">
+        <v>619</v>
+      </c>
+      <c r="B82" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83" s="33" t="s">
+        <v>620</v>
+      </c>
+      <c r="B83" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84" s="33" t="s">
+        <v>621</v>
+      </c>
+      <c r="B84" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85" s="33" t="s">
+        <v>622</v>
+      </c>
+      <c r="B85" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="B86" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87" s="33" t="s">
+        <v>623</v>
+      </c>
+      <c r="B87" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88" s="33" t="s">
+        <v>624</v>
+      </c>
+      <c r="B88" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89" s="33" t="s">
+        <v>625</v>
+      </c>
+      <c r="B89" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90" s="33" t="s">
+        <v>626</v>
+      </c>
+      <c r="B90" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91" s="33" t="s">
+        <v>627</v>
+      </c>
+      <c r="B91" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92" s="33" t="s">
+        <v>628</v>
+      </c>
+      <c r="B92" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93" s="33" t="s">
+        <v>629</v>
+      </c>
+      <c r="B93" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94" s="33" t="s">
+        <v>630</v>
+      </c>
+      <c r="B94" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95" s="33" t="s">
+        <v>631</v>
+      </c>
+      <c r="B95" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A96" s="33" t="s">
+        <v>632</v>
+      </c>
+      <c r="B96" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97" s="33" t="s">
+        <v>633</v>
+      </c>
+      <c r="B97" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98" s="33" t="s">
+        <v>634</v>
+      </c>
+      <c r="B98" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99" s="33" t="s">
+        <v>635</v>
+      </c>
+      <c r="B99" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A100" s="33" t="s">
+        <v>636</v>
+      </c>
+      <c r="B100" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A101" s="33" t="s">
+        <v>637</v>
+      </c>
+      <c r="B101" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A102" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="B102" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A103" s="33" t="s">
+        <v>639</v>
+      </c>
+      <c r="B103" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A104" s="33" t="s">
+        <v>640</v>
+      </c>
+      <c r="B104" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A105" s="33" t="s">
+        <v>641</v>
+      </c>
+      <c r="B105" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A106" s="33" t="s">
+        <v>642</v>
+      </c>
+      <c r="B106" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A107" s="33" t="s">
+        <v>643</v>
+      </c>
+      <c r="B107" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A108" s="33" t="s">
+        <v>644</v>
+      </c>
+      <c r="B108" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A109" s="33" t="s">
+        <v>645</v>
+      </c>
+      <c r="B109" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A110" s="33" t="s">
+        <v>646</v>
+      </c>
+      <c r="B110" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A111" s="33" t="s">
+        <v>647</v>
+      </c>
+      <c r="B111" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A112" s="33" t="s">
+        <v>648</v>
+      </c>
+      <c r="B112" s="33">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A113" s="33" t="s">
+        <v>649</v>
+      </c>
+      <c r="B113" s="33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A114" s="33" t="s">
+        <v>650</v>
+      </c>
+      <c r="B114" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A115" s="33" t="s">
+        <v>651</v>
+      </c>
+      <c r="B115" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A116" s="33" t="s">
+        <v>652</v>
+      </c>
+      <c r="B116" s="33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A117" s="33" t="s">
+        <v>653</v>
+      </c>
+      <c r="B117" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A118" s="33" t="s">
+        <v>654</v>
+      </c>
+      <c r="B118" s="33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A119" s="33" t="s">
+        <v>655</v>
+      </c>
+      <c r="B119" s="33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A120" s="33" t="s">
+        <v>656</v>
+      </c>
+      <c r="B120" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A121" s="33" t="s">
+        <v>657</v>
+      </c>
+      <c r="B121" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A122" s="33" t="s">
+        <v>658</v>
+      </c>
+      <c r="B122" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A123" s="33" t="s">
+        <v>659</v>
+      </c>
+      <c r="B123" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A124" s="33" t="s">
+        <v>660</v>
+      </c>
+      <c r="B124" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A125" s="33" t="s">
+        <v>661</v>
+      </c>
+      <c r="B125" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A126" s="33" t="s">
+        <v>662</v>
+      </c>
+      <c r="B126" s="33">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A127" s="33" t="s">
+        <v>663</v>
+      </c>
+      <c r="B127" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A128" s="33" t="s">
+        <v>664</v>
+      </c>
+      <c r="B128" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A129" s="33" t="s">
+        <v>665</v>
+      </c>
+      <c r="B129" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A130" s="33" t="s">
+        <v>666</v>
+      </c>
+      <c r="B130" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A131" s="33" t="s">
+        <v>667</v>
+      </c>
+      <c r="B131" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A132" s="33" t="s">
+        <v>668</v>
+      </c>
+      <c r="B132" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A133" s="33" t="s">
+        <v>669</v>
+      </c>
+      <c r="B133" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A134" s="33" t="s">
+        <v>670</v>
+      </c>
+      <c r="B134" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A135" s="33" t="s">
+        <v>671</v>
+      </c>
+      <c r="B135" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A136" s="33" t="s">
+        <v>672</v>
+      </c>
+      <c r="B136" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A137" s="33" t="s">
+        <v>673</v>
+      </c>
+      <c r="B137" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A138" s="33" t="s">
+        <v>674</v>
+      </c>
+      <c r="B138" s="33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A139" s="33" t="s">
+        <v>675</v>
+      </c>
+      <c r="B139" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A140" s="33" t="s">
+        <v>676</v>
+      </c>
+      <c r="B140" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A141" s="33" t="s">
+        <v>677</v>
+      </c>
+      <c r="B141" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A142" s="33" t="s">
+        <v>678</v>
+      </c>
+      <c r="B142" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A143" s="33" t="s">
+        <v>679</v>
+      </c>
+      <c r="B143" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A144" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="B144" s="33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A145" s="33" t="s">
+        <v>681</v>
+      </c>
+      <c r="B145" s="33">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>